--- a/data/trans_orig/Q5402-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6709</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2872</v>
+        <v>2897</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13579</v>
+        <v>13847</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02293017758627163</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009817722835599547</v>
+        <v>0.009903000543912664</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04640921278550549</v>
+        <v>0.04732533980126737</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>6683</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2864</v>
+        <v>2886</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13368</v>
+        <v>13249</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01948633961778143</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008351513639029735</v>
+        <v>0.008415530422874197</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03898163200516733</v>
+        <v>0.03863405243056238</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -786,19 +786,19 @@
         <v>13392</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7873</v>
+        <v>6951</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21801</v>
+        <v>20977</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02107183370574642</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01238893158660236</v>
+        <v>0.01093787499637121</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03430419056209941</v>
+        <v>0.03300780782161426</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>18532</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11549</v>
+        <v>12110</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28586</v>
+        <v>28957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06334080939859781</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03947125438578865</v>
+        <v>0.04138842489428506</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09770060638333695</v>
+        <v>0.09896913801320573</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -836,19 +836,19 @@
         <v>13994</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8606</v>
+        <v>7755</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23493</v>
+        <v>22042</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04080794208510946</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02509606915449121</v>
+        <v>0.02261273614428018</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06850726024017464</v>
+        <v>0.06427432276316968</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -857,19 +857,19 @@
         <v>32527</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22875</v>
+        <v>22664</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43660</v>
+        <v>45153</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05118175416259746</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03599359271815735</v>
+        <v>0.03566173646259411</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06869975842022642</v>
+        <v>0.07104890548746023</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>267342</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>256874</v>
+        <v>256426</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>275771</v>
+        <v>275452</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9137290130151305</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8779513756228086</v>
+        <v>0.8764213974984646</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9425377489895772</v>
+        <v>0.9414495919517254</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>349</v>
@@ -907,19 +907,19 @@
         <v>322257</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>312034</v>
+        <v>312821</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>329166</v>
+        <v>329971</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9397057182971091</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9098949074876217</v>
+        <v>0.9121895896698063</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9598515178849444</v>
+        <v>0.9622006915678307</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>626</v>
@@ -928,19 +928,19 @@
         <v>589599</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>577271</v>
+        <v>574619</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>600684</v>
+        <v>601789</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9277464121316561</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9083493828061737</v>
+        <v>0.9041755777449036</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9451902868397154</v>
+        <v>0.9469277607826372</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>19451</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12280</v>
+        <v>12738</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28665</v>
+        <v>27697</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0926749960539046</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05850879396683367</v>
+        <v>0.06069119806729997</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1365739403666029</v>
+        <v>0.1319628703829386</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -1053,19 +1053,19 @@
         <v>30286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20012</v>
+        <v>20797</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>41170</v>
+        <v>43167</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09070268701074335</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05993231425239156</v>
+        <v>0.06228229926308557</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1232987662685077</v>
+        <v>0.1292781035257824</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -1074,19 +1074,19 @@
         <v>49737</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>36761</v>
+        <v>37171</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>64732</v>
+        <v>65779</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0914639246056505</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06760048168968913</v>
+        <v>0.0683559873164505</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1190377314038589</v>
+        <v>0.1209645435339389</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>28584</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20971</v>
+        <v>19785</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>40179</v>
+        <v>39617</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1361918271025133</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09991719152826271</v>
+        <v>0.09426755648675084</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1914366556253956</v>
+        <v>0.1887576713486312</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -1124,19 +1124,19 @@
         <v>34765</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>23773</v>
+        <v>24978</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49158</v>
+        <v>47289</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1041165058176184</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07119755792537998</v>
+        <v>0.07480643712804043</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1472201752571991</v>
+        <v>0.1416234227538873</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>61</v>
@@ -1145,19 +1145,19 @@
         <v>63350</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>49358</v>
+        <v>47618</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>81369</v>
+        <v>78825</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1164963813322849</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09076563629046468</v>
+        <v>0.0875675529441481</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.149632219287508</v>
+        <v>0.1449554982280278</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>161848</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>148965</v>
+        <v>148291</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>172840</v>
+        <v>172814</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7711331768435822</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7097512788572922</v>
+        <v>0.706539290242035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8235040495298371</v>
+        <v>0.8233805904856972</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>233</v>
@@ -1195,19 +1195,19 @@
         <v>268856</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>253155</v>
+        <v>253233</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>282518</v>
+        <v>281476</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8051808071716383</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.758157199078249</v>
+        <v>0.7583922766538388</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8460942945148753</v>
+        <v>0.8429740846362094</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>401</v>
@@ -1216,19 +1216,19 @@
         <v>430704</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>407909</v>
+        <v>409603</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>448729</v>
+        <v>449764</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7920396940620645</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7501212738102523</v>
+        <v>0.7532354002350818</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8251858618809437</v>
+        <v>0.8270907193096347</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>26160</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17471</v>
+        <v>18064</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37184</v>
+        <v>36674</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05206300139523862</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03477001721795499</v>
+        <v>0.03595144618903784</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07400348394523201</v>
+        <v>0.07298846737828409</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -1341,19 +1341,19 @@
         <v>36969</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26009</v>
+        <v>27254</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>51700</v>
+        <v>51046</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05461966456545812</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0384275121515285</v>
+        <v>0.04026693873768514</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07638450776187809</v>
+        <v>0.07541811319227922</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>62</v>
@@ -1362,19 +1362,19 @@
         <v>63129</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49151</v>
+        <v>48456</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>80785</v>
+        <v>77673</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05353035089442573</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04167810869620627</v>
+        <v>0.04108812804599703</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06850235725141078</v>
+        <v>0.06586340203735867</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>47117</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35659</v>
+        <v>35620</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62012</v>
+        <v>61216</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09377111102820263</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07096868829220887</v>
+        <v>0.07088950444861032</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1234143258421908</v>
+        <v>0.1218320866276909</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -1412,19 +1412,19 @@
         <v>48760</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36494</v>
+        <v>35756</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62934</v>
+        <v>62581</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07204010187718481</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05391732431456404</v>
+        <v>0.05282782131600264</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09298183951982289</v>
+        <v>0.09246062615609922</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -1433,19 +1433,19 @@
         <v>95877</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77272</v>
+        <v>78134</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115938</v>
+        <v>114224</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08129900059691769</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06552347274605826</v>
+        <v>0.06625419810375258</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09831023571546507</v>
+        <v>0.09685708885036873</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>429189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>412812</v>
+        <v>413377</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>444460</v>
+        <v>443809</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8541658875765588</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8215713516615216</v>
+        <v>0.8226969055328243</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8845577860761304</v>
+        <v>0.8832611003337763</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>582</v>
@@ -1483,19 +1483,19 @@
         <v>591113</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>570940</v>
+        <v>572975</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>606831</v>
+        <v>608287</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8733402335573571</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8435352223592212</v>
+        <v>0.8465423608250856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8965619276838305</v>
+        <v>0.8987137934524398</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1027</v>
@@ -1504,19 +1504,19 @@
         <v>1020303</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>996419</v>
+        <v>994755</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1043965</v>
+        <v>1043104</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8651706485086565</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.844918244951911</v>
+        <v>0.8435075339140933</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8852352423416595</v>
+        <v>0.8845051236135916</v>
       </c>
     </row>
     <row r="15">
@@ -1846,19 +1846,19 @@
         <v>12199</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6054</v>
+        <v>6132</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21629</v>
+        <v>21925</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03937870473577314</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01954117712443894</v>
+        <v>0.01979321663335272</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06982011720184568</v>
+        <v>0.07077337478084123</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -1867,19 +1867,19 @@
         <v>10668</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4945</v>
+        <v>4966</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19360</v>
+        <v>19359</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0301373122004707</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01396771831510898</v>
+        <v>0.0140286180303817</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05468938780500245</v>
+        <v>0.05468773274330027</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -1888,19 +1888,19 @@
         <v>22867</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14148</v>
+        <v>14772</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34265</v>
+        <v>34917</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03445025670094736</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02131375064480697</v>
+        <v>0.02225398096123743</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05162025806559185</v>
+        <v>0.05260357219077476</v>
       </c>
     </row>
     <row r="5">
@@ -1917,19 +1917,19 @@
         <v>21967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13594</v>
+        <v>13410</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33011</v>
+        <v>33243</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07091007395278516</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04388133511271438</v>
+        <v>0.04328682173459956</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1065617636215767</v>
+        <v>0.1073090470816117</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -1938,19 +1938,19 @@
         <v>19792</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12588</v>
+        <v>13021</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29737</v>
+        <v>29941</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05590897818392643</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03555852905932303</v>
+        <v>0.0367840473908848</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08400295772784171</v>
+        <v>0.08457915424620291</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -1959,19 +1959,19 @@
         <v>41759</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30218</v>
+        <v>30766</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54733</v>
+        <v>57838</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06290996783459553</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04552362394596558</v>
+        <v>0.04634968338388202</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08245628831849498</v>
+        <v>0.08713434726637721</v>
       </c>
     </row>
     <row r="6">
@@ -1988,19 +1988,19 @@
         <v>275620</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>260960</v>
+        <v>261459</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>285839</v>
+        <v>285981</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8897112213114418</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8423876983599834</v>
+        <v>0.8439971493701413</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9226978957617913</v>
+        <v>0.9231572348061496</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>314</v>
@@ -2009,19 +2009,19 @@
         <v>323536</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>311078</v>
+        <v>310494</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>332458</v>
+        <v>332511</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9139537096156028</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8787613727000753</v>
+        <v>0.8771128247581935</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9391567972871547</v>
+        <v>0.9393059518065122</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>565</v>
@@ -2030,19 +2030,19 @@
         <v>599156</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>583633</v>
+        <v>580752</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>614534</v>
+        <v>613610</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9026397754644571</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8792546326288163</v>
+        <v>0.8749142277781673</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.925807660575493</v>
+        <v>0.9244144706795953</v>
       </c>
     </row>
     <row r="7">
@@ -2134,19 +2134,19 @@
         <v>42749</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>32340</v>
+        <v>31749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>57351</v>
+        <v>58544</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1710992427276291</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1294366767580669</v>
+        <v>0.1270709874044215</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2295411748627252</v>
+        <v>0.2343154583259033</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>58</v>
@@ -2155,19 +2155,19 @@
         <v>64691</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50554</v>
+        <v>50653</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>81618</v>
+        <v>81578</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.166309220033487</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1299656178938404</v>
+        <v>0.1302195258178379</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2098254458048947</v>
+        <v>0.2097240876982948</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>96</v>
@@ -2176,19 +2176,19 @@
         <v>107440</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>89092</v>
+        <v>89851</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>128716</v>
+        <v>128953</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1681826316408497</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1394610750454177</v>
+        <v>0.1406492716599876</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2014874477513427</v>
+        <v>0.201858066165136</v>
       </c>
     </row>
     <row r="9">
@@ -2205,19 +2205,19 @@
         <v>43773</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31969</v>
+        <v>32798</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>60465</v>
+        <v>58394</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1751961839074206</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1279532714808936</v>
+        <v>0.131271474166833</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.242003511685225</v>
+        <v>0.2337143310777498</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>51</v>
@@ -2226,19 +2226,19 @@
         <v>56402</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>42661</v>
+        <v>42871</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>70986</v>
+        <v>71523</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1449988883274092</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1096746103158471</v>
+        <v>0.1102140316677565</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1824918995435089</v>
+        <v>0.1838727800997541</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>88</v>
@@ -2247,19 +2247,19 @@
         <v>100174</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>81731</v>
+        <v>81678</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>121000</v>
+        <v>120935</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.156809263280275</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1279384322728686</v>
+        <v>0.1278549362163961</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1894086606878904</v>
+        <v>0.1893071305258462</v>
       </c>
     </row>
     <row r="10">
@@ -2276,19 +2276,19 @@
         <v>163329</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>146263</v>
+        <v>146256</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>179202</v>
+        <v>178376</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6537045733649504</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5854015185252953</v>
+        <v>0.5853729607574581</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7172339998971633</v>
+        <v>0.7139279011626088</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>241</v>
@@ -2297,19 +2297,19 @@
         <v>267887</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>248631</v>
+        <v>250187</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>287668</v>
+        <v>285448</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6886918916391037</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6391893405098957</v>
+        <v>0.6431896186746404</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7395458962705789</v>
+        <v>0.733839838530969</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>388</v>
@@ -2318,19 +2318,19 @@
         <v>431215</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>401753</v>
+        <v>404544</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>453569</v>
+        <v>456287</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6750081050788753</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6288892908364635</v>
+        <v>0.6332580708757045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7099998851128262</v>
+        <v>0.7142544542456226</v>
       </c>
     </row>
     <row r="11">
@@ -2422,19 +2422,19 @@
         <v>54948</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42037</v>
+        <v>41838</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>70878</v>
+        <v>71179</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09818555045090073</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07511403715418052</v>
+        <v>0.07475844284161984</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1266507057156983</v>
+        <v>0.1271872972847241</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>68</v>
@@ -2443,19 +2443,19 @@
         <v>75359</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>58692</v>
+        <v>58476</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>94053</v>
+        <v>92905</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1014290950491968</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07899579208760302</v>
+        <v>0.07870475752237122</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1265898702921088</v>
+        <v>0.1250448133612651</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>117</v>
@@ -2464,19 +2464,19 @@
         <v>130308</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>110013</v>
+        <v>108483</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>155073</v>
+        <v>153213</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1000355813721766</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08445603094719471</v>
+        <v>0.08328102848819811</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1190476372658302</v>
+        <v>0.1176200586248314</v>
       </c>
     </row>
     <row r="13">
@@ -2493,19 +2493,19 @@
         <v>65740</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51134</v>
+        <v>49865</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85584</v>
+        <v>84086</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1174687752140285</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09136945006769699</v>
+        <v>0.08910284319244671</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1529281127084042</v>
+        <v>0.1502513196411456</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -2514,19 +2514,19 @@
         <v>76193</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60798</v>
+        <v>59792</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93265</v>
+        <v>92944</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1025513336376681</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08183048928573784</v>
+        <v>0.08047644927099269</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1255294600652063</v>
+        <v>0.125097689333032</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -2535,19 +2535,19 @@
         <v>141933</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>118233</v>
+        <v>119357</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>165244</v>
+        <v>164694</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1089602662830609</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09076644818074685</v>
+        <v>0.09162875860384051</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1268558110634042</v>
+        <v>0.1264335934237067</v>
       </c>
     </row>
     <row r="14">
@@ -2564,19 +2564,19 @@
         <v>438949</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>417350</v>
+        <v>417026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>458466</v>
+        <v>459388</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7843456743350707</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7457506751723321</v>
+        <v>0.745172648614903</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8192209495011791</v>
+        <v>0.8208671864055702</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>555</v>
@@ -2585,19 +2585,19 @@
         <v>591423</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>567701</v>
+        <v>568970</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>612892</v>
+        <v>614563</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7960195713131352</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7640913815605809</v>
+        <v>0.7657997635497524</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8249157616354712</v>
+        <v>0.8271648974517901</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>953</v>
@@ -2606,19 +2606,19 @@
         <v>1030372</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>995861</v>
+        <v>997398</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1059917</v>
+        <v>1057164</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7910041523447625</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7645106741635749</v>
+        <v>0.7656904827266394</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8136860448674947</v>
+        <v>0.8115725875585744</v>
       </c>
     </row>
     <row r="15">
@@ -2948,19 +2948,19 @@
         <v>6906</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2946</v>
+        <v>3002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13630</v>
+        <v>14752</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02065689564883779</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008812456908755104</v>
+        <v>0.008979665719264694</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04076684284790478</v>
+        <v>0.04412286713443652</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7081</v>
+        <v>7123</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005310696270061802</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01874407289179134</v>
+        <v>0.01885655766314366</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2990,19 +2990,19 @@
         <v>8912</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4649</v>
+        <v>4041</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17060</v>
+        <v>16466</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01251579731288883</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006529103285797603</v>
+        <v>0.005674178091330927</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02395766268119723</v>
+        <v>0.02312313536914448</v>
       </c>
     </row>
     <row r="5">
@@ -3019,19 +3019,19 @@
         <v>11930</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6101</v>
+        <v>6290</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20062</v>
+        <v>20573</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03568474372165204</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0182486579010061</v>
+        <v>0.01881329963768749</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0600080591592246</v>
+        <v>0.06153560331887597</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -3040,19 +3040,19 @@
         <v>14721</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7485</v>
+        <v>8842</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23084</v>
+        <v>25282</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03896797486966769</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01981444975482351</v>
+        <v>0.02340688540279678</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06110719674942224</v>
+        <v>0.06692519052596441</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -3061,19 +3061,19 @@
         <v>26651</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17427</v>
+        <v>17536</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37478</v>
+        <v>37618</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03742648491606222</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02447236829358099</v>
+        <v>0.02462625063769839</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05263026784592596</v>
+        <v>0.0528279685834054</v>
       </c>
     </row>
     <row r="6">
@@ -3090,19 +3090,19 @@
         <v>315493</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>306451</v>
+        <v>304945</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>322605</v>
+        <v>323278</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9436583606295101</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9166132908227058</v>
+        <v>0.9121082293713535</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9649299362766678</v>
+        <v>0.9669421990136167</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>338</v>
@@ -3111,19 +3111,19 @@
         <v>361035</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>351809</v>
+        <v>351131</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>368714</v>
+        <v>367661</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9557213288602705</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9312970536272219</v>
+        <v>0.9295038903008839</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9760489225516615</v>
+        <v>0.9732604393088086</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>644</v>
@@ -3132,19 +3132,19 @@
         <v>676529</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>664208</v>
+        <v>664205</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>687134</v>
+        <v>686642</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.950057717771049</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9327559128935222</v>
+        <v>0.9327515235207328</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9649511245072888</v>
+        <v>0.9642599253499858</v>
       </c>
     </row>
     <row r="7">
@@ -3236,19 +3236,19 @@
         <v>28445</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20347</v>
+        <v>19420</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37991</v>
+        <v>37965</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1106810758535555</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0791707762448</v>
+        <v>0.07556485463496451</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1478279589690744</v>
+        <v>0.1477231097459338</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -3257,19 +3257,19 @@
         <v>47485</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34509</v>
+        <v>34343</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64124</v>
+        <v>65046</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1186626915301734</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08623553874525375</v>
+        <v>0.0858224381102112</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1602431369213325</v>
+        <v>0.1625468403399899</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>68</v>
@@ -3278,19 +3278,19 @@
         <v>75930</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>59660</v>
+        <v>60566</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>93651</v>
+        <v>93211</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1155413247046742</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09078410396255927</v>
+        <v>0.09216238274340292</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.142507121941846</v>
+        <v>0.1418369534226471</v>
       </c>
     </row>
     <row r="9">
@@ -3307,19 +3307,19 @@
         <v>35848</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25642</v>
+        <v>27111</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>47158</v>
+        <v>47986</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1394890758697677</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09977414926796521</v>
+        <v>0.1054921652570688</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1834950421422388</v>
+        <v>0.186716181695488</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>41</v>
@@ -3328,19 +3328,19 @@
         <v>56419</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>40956</v>
+        <v>40200</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>72930</v>
+        <v>73119</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.140988473364603</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1023458771366588</v>
+        <v>0.1004581955255474</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.182248071780528</v>
+        <v>0.182720200441466</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>83</v>
@@ -3349,19 +3349,19 @@
         <v>92268</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>74774</v>
+        <v>73097</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>112160</v>
+        <v>114092</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1404021046658036</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1137819114622186</v>
+        <v>0.1112311742382659</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1706722316929414</v>
+        <v>0.1736121247374841</v>
       </c>
     </row>
     <row r="10">
@@ -3378,19 +3378,19 @@
         <v>192705</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>180773</v>
+        <v>178993</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>205887</v>
+        <v>205477</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7498298482766768</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7034026585918247</v>
+        <v>0.6964772403496309</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8011237584738652</v>
+        <v>0.7995274803735387</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>225</v>
@@ -3399,19 +3399,19 @@
         <v>296265</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>272823</v>
+        <v>274641</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>312910</v>
+        <v>316133</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7403488351052236</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6817683693866377</v>
+        <v>0.6863137165205239</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7819458187031696</v>
+        <v>0.7899976136743193</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>452</v>
@@ -3420,7 +3420,7 @@
         <v>488969</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>464923</v>
+        <v>464720</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>511431</v>
@@ -3429,10 +3429,10 @@
         <v>0.7440565706295222</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7074650298164682</v>
+        <v>0.7071560306708596</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7782365046242349</v>
+        <v>0.7782366261466234</v>
       </c>
     </row>
     <row r="11">
@@ -3524,19 +3524,19 @@
         <v>35351</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25988</v>
+        <v>25834</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48810</v>
+        <v>46794</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05978244762145465</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04394933254952856</v>
+        <v>0.04368772696513878</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08254343542206581</v>
+        <v>0.07913318305577362</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -3545,19 +3545,19 @@
         <v>49491</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>35911</v>
+        <v>35388</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>65574</v>
+        <v>68128</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06361915097534006</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04616273619995185</v>
+        <v>0.04549032383016458</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08429330257782786</v>
+        <v>0.087575338563537</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>77</v>
@@ -3566,19 +3566,19 @@
         <v>84842</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>66817</v>
+        <v>67230</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>103583</v>
+        <v>104438</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06196223280471149</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04879771246137036</v>
+        <v>0.04909963031149024</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07564911290172951</v>
+        <v>0.07627364565721396</v>
       </c>
     </row>
     <row r="13">
@@ -3595,19 +3595,19 @@
         <v>47779</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35316</v>
+        <v>37206</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60905</v>
+        <v>62121</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08079930942175764</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05972255753210517</v>
+        <v>0.06291920251325643</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1029962195880361</v>
+        <v>0.1050531484238847</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -3616,19 +3616,19 @@
         <v>71140</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54523</v>
+        <v>54333</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91207</v>
+        <v>90620</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09144748881074401</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07008732217841281</v>
+        <v>0.06984284284614879</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1172435756135213</v>
+        <v>0.1164880009710368</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>109</v>
@@ -3637,19 +3637,19 @@
         <v>118919</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97855</v>
+        <v>98293</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142796</v>
+        <v>141303</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08684896755789367</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07146589124508065</v>
+        <v>0.07178532181029851</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1042867693122217</v>
+        <v>0.1031970178194846</v>
       </c>
     </row>
     <row r="14">
@@ -3666,19 +3666,19 @@
         <v>508198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>492180</v>
+        <v>491892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>524267</v>
+        <v>523857</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8594182429567877</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8323304061436091</v>
+        <v>0.8318426324521823</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8865922866703817</v>
+        <v>0.885898730234561</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>563</v>
@@ -3687,19 +3687,19 @@
         <v>657300</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>634134</v>
+        <v>633775</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>680270</v>
+        <v>678758</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.844933360213916</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8151547737395444</v>
+        <v>0.8146930604463319</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8744601417833258</v>
+        <v>0.8725167308763666</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1096</v>
@@ -3708,19 +3708,19 @@
         <v>1165498</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1138266</v>
+        <v>1138489</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1193760</v>
+        <v>1192394</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8511887996373948</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8313005428335402</v>
+        <v>0.8314638566758162</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8718294018415295</v>
+        <v>0.8708314359064803</v>
       </c>
     </row>
     <row r="15">
@@ -4050,19 +4050,19 @@
         <v>11596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7581</v>
+        <v>7008</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17795</v>
+        <v>17781</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0285414397421184</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01866051364422754</v>
+        <v>0.01725001548573048</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04380146847079446</v>
+        <v>0.04376772262264352</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -4071,19 +4071,19 @@
         <v>5839</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2864</v>
+        <v>3172</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10082</v>
+        <v>10279</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01330830386725923</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006526915009305455</v>
+        <v>0.00723023518920078</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02297909722265275</v>
+        <v>0.02342948673998398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -4092,19 +4092,19 @@
         <v>17434</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12094</v>
+        <v>12227</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25085</v>
+        <v>24861</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02063224165410948</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01431256596371048</v>
+        <v>0.01446998589773413</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02968643677003246</v>
+        <v>0.0294215141303631</v>
       </c>
     </row>
     <row r="5">
@@ -4121,19 +4121,19 @@
         <v>23019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17027</v>
+        <v>16536</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31500</v>
+        <v>31297</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05665851636820346</v>
+        <v>0.05665851636820345</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04190972927299508</v>
+        <v>0.04070127501121531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07753365825063661</v>
+        <v>0.07703408044401816</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -4142,19 +4142,19 @@
         <v>28532</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21602</v>
+        <v>21363</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36430</v>
+        <v>36773</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06503334539081053</v>
+        <v>0.06503334539081052</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04923722189104474</v>
+        <v>0.04869347542902086</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08303452546373292</v>
+        <v>0.08381597841615869</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>88</v>
@@ -4163,19 +4163,19 @@
         <v>51551</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41507</v>
+        <v>41661</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>64250</v>
+        <v>62191</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06100681223040509</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04912024032866302</v>
+        <v>0.04930314693018492</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07603483102456061</v>
+        <v>0.0735990008761926</v>
       </c>
     </row>
     <row r="6">
@@ -4192,19 +4192,19 @@
         <v>371655</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>362486</v>
+        <v>361408</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>379645</v>
+        <v>379805</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9148000438896781</v>
+        <v>0.9148000438896782</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8922323239128142</v>
+        <v>0.8895786534542711</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9344671801689928</v>
+        <v>0.9348613500250903</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>763</v>
@@ -4213,19 +4213,19 @@
         <v>404363</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>395143</v>
+        <v>395301</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>411597</v>
+        <v>412645</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9216583507419303</v>
+        <v>0.92165835074193</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.90064381873305</v>
+        <v>0.9010042371538707</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9381460602957493</v>
+        <v>0.9405346093854612</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1277</v>
@@ -4234,19 +4234,19 @@
         <v>776019</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>763694</v>
+        <v>762960</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>787863</v>
+        <v>787463</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9183609461154855</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9037753533620282</v>
+        <v>0.9029070869572913</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9323777043970793</v>
+        <v>0.9319043711020712</v>
       </c>
     </row>
     <row r="7">
@@ -4338,19 +4338,19 @@
         <v>39407</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30375</v>
+        <v>30835</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>48817</v>
+        <v>49874</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1280588290593775</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09870587692622128</v>
+        <v>0.1002027460442431</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1586354450729103</v>
+        <v>0.1620715830335444</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>139</v>
@@ -4359,19 +4359,19 @@
         <v>74323</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>62236</v>
+        <v>61162</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86888</v>
+        <v>85662</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1599686271928228</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1339534792718282</v>
+        <v>0.1316411792258746</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1870140800107389</v>
+        <v>0.1843753360031276</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>206</v>
@@ -4380,19 +4380,19 @@
         <v>113730</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>98447</v>
+        <v>100183</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>128963</v>
+        <v>129254</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1472545326224781</v>
+        <v>0.147254532622478</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1274667972418983</v>
+        <v>0.129713580555837</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1669773539625762</v>
+        <v>0.1673542835206005</v>
       </c>
     </row>
     <row r="9">
@@ -4409,19 +4409,19 @@
         <v>44215</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>34561</v>
+        <v>35348</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>56277</v>
+        <v>55246</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1436823704749366</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1123102750174948</v>
+        <v>0.1148674170312719</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1828777441943063</v>
+        <v>0.1795290149413881</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>171</v>
@@ -4430,19 +4430,19 @@
         <v>86280</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>74715</v>
+        <v>74343</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>99084</v>
+        <v>97867</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1857055952258667</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1608117736844306</v>
+        <v>0.1600123734144148</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2132631408369758</v>
+        <v>0.2106446773742581</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>237</v>
@@ -4451,19 +4451,19 @@
         <v>130496</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>115345</v>
+        <v>114808</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>145719</v>
+        <v>147590</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1689619213423838</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.149344960330334</v>
+        <v>0.1486505155150856</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1886726301909596</v>
+        <v>0.1910947528613892</v>
       </c>
     </row>
     <row r="10">
@@ -4480,19 +4480,19 @@
         <v>224106</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>210385</v>
+        <v>209476</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>235921</v>
+        <v>235215</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7282588004656858</v>
+        <v>0.7282588004656859</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6836683511544632</v>
+        <v>0.6807153220658603</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7666513833031048</v>
+        <v>0.764356406135216</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>571</v>
@@ -4501,19 +4501,19 @@
         <v>304006</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>288844</v>
+        <v>288093</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>319433</v>
+        <v>318752</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6543257775813104</v>
+        <v>0.6543257775813103</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6216917141760221</v>
+        <v>0.62007548108826</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6875303604382216</v>
+        <v>0.6860657342622132</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>893</v>
@@ -4522,19 +4522,19 @@
         <v>528112</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>509095</v>
+        <v>507654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>546714</v>
+        <v>548759</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.683783546035138</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6591610304731633</v>
+        <v>0.6572947331656955</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7078692354601931</v>
+        <v>0.710516100752699</v>
       </c>
     </row>
     <row r="11">
@@ -4626,19 +4626,19 @@
         <v>51003</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39954</v>
+        <v>41227</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>62880</v>
+        <v>62979</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07143287543730606</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05595848867626398</v>
+        <v>0.05774157766846725</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08806705080844758</v>
+        <v>0.08820636211605383</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>150</v>
@@ -4647,19 +4647,19 @@
         <v>80162</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>68322</v>
+        <v>67692</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>93411</v>
+        <v>94935</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0887388651221927</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07563197938944981</v>
+        <v>0.07493490953921172</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1034063187158106</v>
+        <v>0.1050934078167707</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>236</v>
@@ -4668,19 +4668,19 @@
         <v>131165</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>114133</v>
+        <v>114900</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>150805</v>
+        <v>148719</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08109889004270597</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0705683459310676</v>
+        <v>0.071042572660166</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09324225173800528</v>
+        <v>0.09195253663397011</v>
       </c>
     </row>
     <row r="13">
@@ -4697,19 +4697,19 @@
         <v>67234</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55410</v>
+        <v>55852</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80186</v>
+        <v>81598</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09416530857782392</v>
+        <v>0.0941653085778239</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07760574000743936</v>
+        <v>0.07822354128453189</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1123050798491305</v>
+        <v>0.1142825674323233</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>223</v>
@@ -4718,19 +4718,19 @@
         <v>114813</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101525</v>
+        <v>99471</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>131126</v>
+        <v>129942</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.127097681037664</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1123884528721581</v>
+        <v>0.1101147398036086</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1451563112262185</v>
+        <v>0.1438454691336057</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>325</v>
@@ -4739,19 +4739,19 @@
         <v>182047</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>162585</v>
+        <v>163340</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>201326</v>
+        <v>204739</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1125592172177486</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1005262816172144</v>
+        <v>0.1009930612359504</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1244796610897421</v>
+        <v>0.126589936889138</v>
       </c>
     </row>
     <row r="14">
@@ -4768,19 +4768,19 @@
         <v>595762</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>579618</v>
+        <v>578104</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>611622</v>
+        <v>610206</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.83440181598487</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8117913766691284</v>
+        <v>0.8096700205094733</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8566148004141213</v>
+        <v>0.8546316613335982</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1334</v>
@@ -4789,19 +4789,19 @@
         <v>708369</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>688423</v>
+        <v>690096</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>725671</v>
+        <v>727582</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7841634538401433</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7620836683261977</v>
+        <v>0.7639353473856345</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8033172175383789</v>
+        <v>0.8054331905517013</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2170</v>
@@ -4810,19 +4810,19 @@
         <v>1304131</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1280820</v>
+        <v>1278066</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1328715</v>
+        <v>1329190</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8063418927395453</v>
+        <v>0.8063418927395454</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7919292788230953</v>
+        <v>0.7902262024933322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8215425201086569</v>
+        <v>0.8218361023215041</v>
       </c>
     </row>
     <row r="15">
